--- a/Опросник.xlsx
+++ b/Опросник.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6150" tabRatio="122"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AHC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2546,6 +2546,23 @@
     <col min="11" max="11" width="19.625" customWidth="1"/>
     <col min="12" max="12" width="15.25" customWidth="1"/>
     <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="33" max="33" width="28.625" customWidth="1"/>
+    <col min="59" max="59" width="27" customWidth="1"/>
+    <col min="61" max="61" width="34.25" customWidth="1"/>
+    <col min="62" max="62" width="19.75" customWidth="1"/>
+    <col min="63" max="63" width="22.125" customWidth="1"/>
+    <col min="65" max="65" width="29.625" customWidth="1"/>
+    <col min="66" max="66" width="26.375" customWidth="1"/>
+    <col min="67" max="67" width="34.25" customWidth="1"/>
+    <col min="68" max="68" width="30" customWidth="1"/>
+    <col min="69" max="69" width="17.5" customWidth="1"/>
+    <col min="70" max="70" width="20.125" customWidth="1"/>
+    <col min="71" max="71" width="21.625" customWidth="1"/>
+    <col min="72" max="72" width="72.875" customWidth="1"/>
+    <col min="73" max="73" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:887" x14ac:dyDescent="0.25">

--- a/Опросник.xlsx
+++ b/Опросник.xlsx
@@ -2196,10 +2196,10 @@
     <t>Английский</t>
   </si>
   <si>
-    <t>kevin.smiht@south.rt.ru</t>
-  </si>
-  <si>
     <t>Брань</t>
+  </si>
+  <si>
+    <t>kevin.smith@south.rt.ru</t>
   </si>
 </sst>
 </file>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AHC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="8" spans="1:887" x14ac:dyDescent="0.25">
       <c r="I8" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="N8" t="s">
         <v>725</v>
-      </c>
-      <c r="N8" t="s">
-        <v>726</v>
       </c>
     </row>
   </sheetData>
